--- a/Solver-Revenue-Maximization-Guide-Spreadsheet.xlsx
+++ b/Solver-Revenue-Maximization-Guide-Spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivaprab/Desktop/Files/Coursera/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\Desktop\Coding\Excel 2 SQL\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A21B820-2912-8542-8957-C0D77F8DD1E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E39D0FC-13F6-4106-977E-AEAA90EE185B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Solver Revenue Maximization" sheetId="4" r:id="rId1"/>
@@ -1466,21 +1466,21 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -1494,7 +1494,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="48"/>
       <c r="B3" s="9" t="s">
         <v>1</v>
@@ -1512,7 +1512,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="48"/>
       <c r="B4" s="12" t="s">
         <v>3</v>
@@ -1534,7 +1534,7 @@
       <c r="K4" s="11"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="48"/>
       <c r="B5" s="21">
         <v>100</v>
@@ -1558,7 +1558,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="48"/>
       <c r="B6" s="21">
         <v>150</v>
@@ -1582,7 +1582,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="22">
         <v>200</v>
@@ -1606,7 +1606,7 @@
       <c r="K7" s="11"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -1620,7 +1620,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="48"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -1634,7 +1634,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
       <c r="B10" s="9" t="s">
         <v>1</v>
@@ -1652,7 +1652,7 @@
       <c r="K10" s="11"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="48"/>
       <c r="B11" s="12" t="s">
         <v>7</v>
@@ -1670,7 +1670,7 @@
       <c r="K11" s="11"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="48"/>
       <c r="B12" s="21">
         <f>B5</f>
@@ -1690,7 +1690,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="48"/>
       <c r="B13" s="21">
         <f t="shared" ref="B13:B14" si="2">B6</f>
@@ -1710,7 +1710,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="48"/>
       <c r="B14" s="22">
         <f t="shared" si="2"/>
@@ -1730,7 +1730,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="48"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -1744,7 +1744,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="48"/>
       <c r="B16" s="2" t="s">
         <v>8</v>
@@ -1760,7 +1760,7 @@
       <c r="K16" s="11"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="48"/>
       <c r="B17" s="9" t="s">
         <v>18</v>
@@ -1778,7 +1778,7 @@
       <c r="K17" s="11"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="48"/>
       <c r="B18" s="8" t="s">
         <v>19</v>
@@ -1796,7 +1796,7 @@
       <c r="K18" s="11"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1810,7 +1810,7 @@
       <c r="K19" s="49"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="48"/>
       <c r="B20" s="9" t="s">
         <v>9</v>
@@ -1826,7 +1826,7 @@
       <c r="K20" s="49"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="12" t="s">
         <v>3</v>
@@ -1844,7 +1844,7 @@
       <c r="K21" s="49"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="12" t="s">
         <v>10</v>
@@ -1866,7 +1866,7 @@
       <c r="K22" s="11"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="26">
         <f>B5</f>
@@ -1892,7 +1892,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="28">
         <v>150</v>
@@ -1917,7 +1917,7 @@
       <c r="K24" s="11"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="22">
         <f>B7</f>
@@ -1943,7 +1943,7 @@
       <c r="K25" s="11"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="32">
         <v>150</v>
@@ -1968,7 +1968,7 @@
       <c r="K26" s="11"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -1982,7 +1982,7 @@
       <c r="K27" s="11"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="1" t="s">
         <v>11</v>
@@ -1998,7 +1998,7 @@
       <c r="K28" s="11"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="9" t="s">
         <v>12</v>
@@ -2014,7 +2014,7 @@
       <c r="K29" s="11"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="12" t="s">
         <v>25</v>
@@ -2030,7 +2030,7 @@
       <c r="K30" s="11"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="8" t="s">
         <v>24</v>
@@ -2046,7 +2046,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
@@ -2060,7 +2060,7 @@
       <c r="K32" s="49"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -2074,7 +2074,7 @@
       <c r="K33" s="49"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="48"/>
       <c r="B34" s="36" t="s">
         <v>22</v>
@@ -2090,7 +2090,7 @@
       <c r="K34" s="49"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="39" t="s">
         <v>23</v>
@@ -2106,7 +2106,7 @@
       <c r="K35" s="49"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="48"/>
       <c r="B36" s="40" t="s">
         <v>13</v>
@@ -2121,7 +2121,7 @@
       <c r="K36" s="49"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="48"/>
       <c r="B37" s="39" t="s">
         <v>15</v>
@@ -2137,7 +2137,7 @@
       <c r="K37" s="49"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="48"/>
       <c r="B38" s="42" t="s">
         <v>20</v>
@@ -2153,7 +2153,7 @@
       <c r="K38" s="49"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="48"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -2167,7 +2167,7 @@
       <c r="K39" s="49"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="48"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -2181,7 +2181,7 @@
       <c r="K40" s="49"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
       <c r="B41" s="53" t="s">
         <v>16</v>
@@ -2197,7 +2197,7 @@
       <c r="K41" s="49"/>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
       <c r="B42" s="54" t="s">
         <v>0</v>
@@ -2213,7 +2213,7 @@
       <c r="K42" s="49"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="55" t="s">
         <v>17</v>
@@ -2229,7 +2229,7 @@
       <c r="K43" s="49"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -2243,7 +2243,7 @@
       <c r="K44" s="49"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -2257,7 +2257,7 @@
       <c r="K45" s="49"/>
       <c r="L45" s="14"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="52"/>
       <c r="B46" s="50"/>
       <c r="C46" s="50"/>
